--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>№</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>ййй</t>
   </si>
   <si>
     <t>AAAAAA</t>
@@ -161,7 +164,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>100.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="7">
@@ -172,7 +175,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>78.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="8">
@@ -183,7 +186,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="9">
@@ -194,7 +197,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="10">
@@ -213,10 +216,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>45.0</v>
+        <v>71.0</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>№</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>qq</t>
+  </si>
+  <si>
+    <t>й</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,6 +149,28 @@
         <v>38.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
